--- a/biology/Biologie cellulaire et moléculaire/Jacques_Samarut/Jacques_Samarut.xlsx
+++ b/biology/Biologie cellulaire et moléculaire/Jacques_Samarut/Jacques_Samarut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Samarut, né le 2 septembre 1949[1], est un chercheur biologiste français, spécialiste des rétrovirus oncogènes et des mécanismes des récepteurs hormonaux dans le développement embryonnaire et le cancer. Directeur de département au Centre national de la recherche scientifique (CNRS), il est ensuite directeur puis président de l'École normale supérieure de Lyon.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Samarut, né le 2 septembre 1949, est un chercheur biologiste français, spécialiste des rétrovirus oncogènes et des mécanismes des récepteurs hormonaux dans le développement embryonnaire et le cancer. Directeur de département au Centre national de la recherche scientifique (CNRS), il est ensuite directeur puis président de l'École normale supérieure de Lyon.
 </t>
         </is>
       </c>
@@ -512,6 +524,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -537,7 +551,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Nakasone Gann Program Fellowship (Japan, 1985)
@@ -549,9 +565,9 @@
 Higher End Expert Professor at the East China Normal University (2014-2017)
 [réf. nécessaire]
  Chevalier de la Légion d'honneur (2008)[réf. souhaitée].
- Officier de l'ordre national du Mérite (2015)[2].
+ Officier de l'ordre national du Mérite (2015).
 Médaille de bronze puis médaille d'argent du CNRS[réf. souhaitée].
-Docteur honoris causa de l'université d'Ottawa (2011)[3].</t>
+Docteur honoris causa de l'université d'Ottawa (2011).</t>
         </is>
       </c>
     </row>
